--- a/metrics/R2/average & upto/Microalbuminuria.xlsx
+++ b/metrics/R2/average & upto/Microalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4397677103455581</v>
+        <v>0.4645396812019161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4397677103455581</v>
+        <v>0.4645396812019161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4397677103455581</v>
+        <v>0.4645396812019161</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980800786466733</v>
+        <v>0.9823805606501318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978383434619605</v>
+        <v>0.9828184023277498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9980150511543883</v>
+        <v>0.98143037035651</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9987153962978254</v>
+        <v>0.986219743551207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987210084559232</v>
+        <v>0.9865140369692639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9987173350845697</v>
+        <v>0.9862472735506163</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9644605390651523</v>
+        <v>0.9443593256312141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9661321868084758</v>
+        <v>0.9433916975895896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9646384025561793</v>
+        <v>0.9414795238850578</v>
       </c>
     </row>
   </sheetData>
